--- a/output/1Y_P5_KFSDIV.xlsx
+++ b/output/1Y_P5_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>8.9801</v>
       </c>
       <c r="C2" s="1">
-        <v>8.9801</v>
+        <v>8.9621</v>
       </c>
       <c r="D2" s="1">
-        <v>8.9801</v>
+        <v>8.998100000000001</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1113.5733</v>
+        <v>1111.3457</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>8.6477</v>
       </c>
       <c r="C3" s="1">
-        <v>8.6477</v>
+        <v>8.6304</v>
       </c>
       <c r="D3" s="1">
-        <v>8.6477</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>1113.5733</v>
+        <v>1111.3457</v>
       </c>
       <c r="F3" s="1">
-        <v>1156.3768</v>
+        <v>1154.0681</v>
       </c>
       <c r="H3" s="1">
-        <v>9629.8482</v>
+        <v>9591.358200000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9629.8482</v>
+        <v>9591.358200000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>8.9801</v>
+        <v>8.998100000000001</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.037</v>
+        <v>-0.0409</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>9.568899999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>9.568899999999999</v>
+        <v>9.549799999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>2269.9502</v>
+        <v>2265.4138</v>
       </c>
       <c r="F4" s="1">
-        <v>1045.0522</v>
+        <v>1042.9595</v>
       </c>
       <c r="H4" s="1">
-        <v>21720.9263</v>
+        <v>21634.2489</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21720.9263</v>
+        <v>21634.2489</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>8.8108</v>
+        <v>8.8284</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.1065</v>
+        <v>0.1043</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E5" s="1">
-        <v>3315.0024</v>
+        <v>3308.3733</v>
       </c>
       <c r="F5" s="1">
-        <v>1060.5129</v>
+        <v>1058.3915</v>
       </c>
       <c r="H5" s="1">
-        <v>31258.4835</v>
+        <v>31133.4471</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>31258.4835</v>
+        <v>31133.4471</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>9.049799999999999</v>
+        <v>9.0679</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0146</v>
+        <v>-0.0158</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D6" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E6" s="1">
-        <v>4375.5152</v>
+        <v>4366.7648</v>
       </c>
       <c r="F6" s="1">
-        <v>1041.2328</v>
+        <v>1039.1446</v>
       </c>
       <c r="H6" s="1">
-        <v>42022.0109</v>
+        <v>41854.567</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>42022.0109</v>
+        <v>41854.567</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>9.1418</v>
+        <v>9.1601</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0185</v>
+        <v>0.0175</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>10.3595</v>
       </c>
       <c r="C7" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D7" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E7" s="1">
-        <v>5416.7481</v>
+        <v>5405.9094</v>
       </c>
       <c r="F7" s="1">
-        <v>965.2976</v>
+        <v>963.3633</v>
       </c>
       <c r="H7" s="1">
-        <v>56114.8016</v>
+        <v>55890.6156</v>
       </c>
       <c r="I7" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>56114.8016</v>
+        <v>55890.6156</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>9.230600000000001</v>
+        <v>9.2491</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.07870000000000001</v>
+        <v>0.07779999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>10.0875</v>
       </c>
       <c r="C8" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D8" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E8" s="1">
-        <v>6382.0456</v>
+        <v>6369.2726</v>
       </c>
       <c r="F8" s="1">
-        <v>991.3259</v>
+        <v>989.3448</v>
       </c>
       <c r="H8" s="1">
-        <v>64378.8852</v>
+        <v>64121.3785</v>
       </c>
       <c r="I8" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>64378.8852</v>
+        <v>64121.3785</v>
       </c>
       <c r="K8" s="1">
         <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>9.401400000000001</v>
+        <v>9.420199999999999</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0263</v>
+        <v>-0.0269</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,46 +1071,46 @@
         <v>10.1692</v>
       </c>
       <c r="C9" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D9" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E9" s="1">
-        <v>7373.3715</v>
+        <v>7358.6174</v>
       </c>
       <c r="F9" s="1">
-        <v>983.3615</v>
+        <v>981.3928</v>
       </c>
       <c r="H9" s="1">
-        <v>74981.28969999999</v>
+        <v>74681.8722</v>
       </c>
       <c r="I9" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>74981.28969999999</v>
+        <v>74681.8722</v>
       </c>
       <c r="K9" s="1">
         <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>9.493600000000001</v>
+        <v>9.512700000000001</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1723.1523</v>
+        <v>1719.7036</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8276.8477</v>
+        <v>-8280.296399999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0081</v>
+        <v>0.0076</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>11.0872</v>
       </c>
       <c r="C10" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D10" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E10" s="1">
-        <v>8356.733</v>
+        <v>8340.010200000001</v>
       </c>
       <c r="F10" s="1">
-        <v>940.7954999999999</v>
+        <v>938.8379</v>
       </c>
       <c r="H10" s="1">
-        <v>92652.7706</v>
+        <v>92282.21279999999</v>
       </c>
       <c r="I10" s="1">
-        <v>1723.1523</v>
+        <v>1719.7036</v>
       </c>
       <c r="J10" s="1">
-        <v>94375.92290000001</v>
+        <v>94001.9164</v>
       </c>
       <c r="K10" s="1">
         <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>9.5731</v>
+        <v>9.5923</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10430.7881</v>
+        <v>-10429.9259</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.1105</v>
+        <v>0.1101</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>11.0976</v>
       </c>
       <c r="C11" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D11" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E11" s="1">
-        <v>9297.5286</v>
+        <v>9278.848099999999</v>
       </c>
       <c r="F11" s="1">
-        <v>939.9139</v>
+        <v>937.9598</v>
       </c>
       <c r="H11" s="1">
-        <v>103180.253</v>
+        <v>102766.9543</v>
       </c>
       <c r="I11" s="1">
-        <v>1292.3642</v>
+        <v>1289.7777</v>
       </c>
       <c r="J11" s="1">
-        <v>104472.6172</v>
+        <v>104056.7321</v>
       </c>
       <c r="K11" s="1">
-        <v>90430.78810000001</v>
+        <v>90429.9259</v>
       </c>
       <c r="L11" s="1">
-        <v>9.7263</v>
+        <v>9.745799999999999</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10430.7881</v>
+        <v>-10429.9259</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0009</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,46 +1221,46 @@
         <v>10.8505</v>
       </c>
       <c r="C12" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D12" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E12" s="1">
-        <v>10237.4424</v>
+        <v>10216.808</v>
       </c>
       <c r="F12" s="1">
-        <v>961.3187</v>
+        <v>959.3117999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>111081.369</v>
+        <v>110635.77</v>
       </c>
       <c r="I12" s="1">
-        <v>861.5762</v>
+        <v>859.8518</v>
       </c>
       <c r="J12" s="1">
-        <v>111942.9452</v>
+        <v>111495.6218</v>
       </c>
       <c r="K12" s="1">
-        <v>100861.5762</v>
+        <v>100859.8518</v>
       </c>
       <c r="L12" s="1">
-        <v>9.8522</v>
+        <v>9.872</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>4183.8879</v>
+        <v>4175.4816</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6246.9002</v>
+        <v>-6254.4443</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0221</v>
+        <v>-0.0225</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>11.8576</v>
       </c>
       <c r="C13" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D13" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E13" s="1">
-        <v>11198.7611</v>
+        <v>11176.1198</v>
       </c>
       <c r="F13" s="1">
-        <v>1232.5155</v>
+        <v>1229.2665</v>
       </c>
       <c r="H13" s="1">
-        <v>132790.4294</v>
+        <v>132257.0838</v>
       </c>
       <c r="I13" s="1">
-        <v>4614.6759</v>
+        <v>4605.4076</v>
       </c>
       <c r="J13" s="1">
-        <v>137405.1053</v>
+        <v>136862.4914</v>
       </c>
       <c r="K13" s="1">
-        <v>111292.3642</v>
+        <v>111289.7777</v>
       </c>
       <c r="L13" s="1">
-        <v>9.937900000000001</v>
+        <v>9.957800000000001</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-14614.6759</v>
+        <v>-14605.4076</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.1268</v>
+        <v>0.1265</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>12.5699</v>
       </c>
       <c r="C14" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D14" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E14" s="1">
-        <v>12431.2766</v>
+        <v>12405.3863</v>
       </c>
       <c r="F14" s="1">
-        <v>-12431.2766</v>
+        <v>-12405.3863</v>
       </c>
       <c r="H14" s="1">
-        <v>156259.9037</v>
+        <v>155623.0903</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>156259.9037</v>
+        <v>155623.0903</v>
       </c>
       <c r="K14" s="1">
-        <v>125907.0402</v>
+        <v>125895.1853</v>
       </c>
       <c r="L14" s="1">
-        <v>10.1282</v>
+        <v>10.1484</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>156259.9037</v>
+        <v>155623.0903</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0601</v>
+        <v>0.0597</v>
       </c>
     </row>
   </sheetData>
@@ -1386,7 +1386,7 @@
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
@@ -1456,16 +1456,16 @@
         <v>8.9801</v>
       </c>
       <c r="C2" s="1">
-        <v>8.9801</v>
+        <v>8.9621</v>
       </c>
       <c r="D2" s="1">
-        <v>8.9801</v>
+        <v>8.998100000000001</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1113.5733</v>
+        <v>1111.3457</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>8.6477</v>
       </c>
       <c r="C3" s="1">
-        <v>8.6477</v>
+        <v>8.6304</v>
       </c>
       <c r="D3" s="1">
-        <v>8.6477</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>1113.5733</v>
+        <v>1111.3457</v>
       </c>
       <c r="F3" s="1">
-        <v>1156.3768</v>
+        <v>1154.0681</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9629.8482</v>
+        <v>9591.358200000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9629.8482</v>
+        <v>9591.358200000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>8.9801</v>
+        <v>8.998100000000001</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.037</v>
+        <v>-0.0409</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>9.568899999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>9.568899999999999</v>
+        <v>9.549799999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>2269.9502</v>
+        <v>2265.4138</v>
       </c>
       <c r="F4" s="1">
-        <v>865.2064</v>
+        <v>876.0132</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>21720.9263</v>
+        <v>21634.2489</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21720.9263</v>
+        <v>21634.2489</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>8.8108</v>
+        <v>8.8284</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8279.073700000001</v>
+        <v>-8399.3024</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.1065</v>
+        <v>0.1043</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E5" s="1">
-        <v>3135.1566</v>
+        <v>3141.427</v>
       </c>
       <c r="F5" s="1">
-        <v>1106.8949</v>
+        <v>1109.1441</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>29562.6457</v>
+        <v>29562.3992</v>
       </c>
       <c r="I5" s="1">
-        <v>1720.9263</v>
+        <v>1600.6976</v>
       </c>
       <c r="J5" s="1">
-        <v>31283.572</v>
+        <v>31163.0968</v>
       </c>
       <c r="K5" s="1">
-        <v>28279.0737</v>
+        <v>28399.3024</v>
       </c>
       <c r="L5" s="1">
-        <v>9.02</v>
+        <v>9.0403</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10437.3543</v>
+        <v>-10479.5264</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0138</v>
+        <v>-0.0149</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D6" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E6" s="1">
-        <v>4242.0515</v>
+        <v>4250.5712</v>
       </c>
       <c r="F6" s="1">
-        <v>964.1669000000001</v>
+        <v>966.0218</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>40740.238</v>
+        <v>40740.8746</v>
       </c>
       <c r="I6" s="1">
-        <v>1283.572</v>
+        <v>1121.1711</v>
       </c>
       <c r="J6" s="1">
-        <v>42023.81</v>
+        <v>41862.0457</v>
       </c>
       <c r="K6" s="1">
-        <v>38716.428</v>
+        <v>38878.8289</v>
       </c>
       <c r="L6" s="1">
-        <v>9.126799999999999</v>
+        <v>9.146699999999999</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9259.858399999999</v>
+        <v>-9296.317300000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0179</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>10.3595</v>
       </c>
       <c r="C7" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D7" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E7" s="1">
-        <v>5206.2183</v>
+        <v>5216.5929</v>
       </c>
       <c r="F7" s="1">
-        <v>585.567</v>
+        <v>586.7885</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>53933.8186</v>
+        <v>53933.3111</v>
       </c>
       <c r="I7" s="1">
-        <v>2023.7135</v>
+        <v>1824.8539</v>
       </c>
       <c r="J7" s="1">
-        <v>55957.5321</v>
+        <v>55758.1649</v>
       </c>
       <c r="K7" s="1">
-        <v>47976.2865</v>
+        <v>48175.1461</v>
       </c>
       <c r="L7" s="1">
-        <v>9.215199999999999</v>
+        <v>9.234999999999999</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-6066.1814</v>
+        <v>-6091.0406</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0756</v>
+        <v>0.0751</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>10.0875</v>
       </c>
       <c r="C8" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D8" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E8" s="1">
-        <v>5791.7853</v>
+        <v>5803.3814</v>
       </c>
       <c r="F8" s="1">
-        <v>1147.496</v>
+        <v>1149.8235</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>58424.6344</v>
+        <v>58424.3819</v>
       </c>
       <c r="I8" s="1">
-        <v>5957.5321</v>
+        <v>5733.8132</v>
       </c>
       <c r="J8" s="1">
-        <v>64382.1665</v>
+        <v>64158.1952</v>
       </c>
       <c r="K8" s="1">
-        <v>54042.4679</v>
+        <v>54266.1868</v>
       </c>
       <c r="L8" s="1">
-        <v>9.3309</v>
+        <v>9.3508</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11575.3656</v>
+        <v>-11622.0709</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0239</v>
+        <v>-0.0243</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,49 +1821,49 @@
         <v>10.1692</v>
       </c>
       <c r="C9" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D9" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E9" s="1">
-        <v>6939.2813</v>
+        <v>6953.2049</v>
       </c>
       <c r="F9" s="1">
-        <v>927.6109</v>
+        <v>929.4227</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>70566.9393</v>
+        <v>70567.3815</v>
       </c>
       <c r="I9" s="1">
-        <v>4382.1665</v>
+        <v>4111.7423</v>
       </c>
       <c r="J9" s="1">
-        <v>74949.1058</v>
+        <v>74679.1238</v>
       </c>
       <c r="K9" s="1">
-        <v>65617.83349999999</v>
+        <v>65888.2577</v>
       </c>
       <c r="L9" s="1">
-        <v>9.456</v>
+        <v>9.476000000000001</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1563.782</v>
+        <v>1566.913</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7869.2787</v>
+        <v>-7903.533</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0076</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>11.0872</v>
       </c>
       <c r="C10" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D10" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E10" s="1">
-        <v>7866.8922</v>
+        <v>7882.6277</v>
       </c>
       <c r="F10" s="1">
-        <v>250.5766</v>
+        <v>251.1274</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>87221.807</v>
+        <v>87221.2752</v>
       </c>
       <c r="I10" s="1">
-        <v>6512.8878</v>
+        <v>6208.2093</v>
       </c>
       <c r="J10" s="1">
-        <v>93734.6948</v>
+        <v>93429.48450000001</v>
       </c>
       <c r="K10" s="1">
-        <v>75050.8942</v>
+        <v>75358.7037</v>
       </c>
       <c r="L10" s="1">
-        <v>9.540100000000001</v>
+        <v>9.5601</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-2778.193</v>
+        <v>-2789.8748</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.1034</v>
+        <v>0.1033</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>11.0976</v>
       </c>
       <c r="C11" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D11" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E11" s="1">
-        <v>8117.4688</v>
+        <v>8133.7551</v>
       </c>
       <c r="F11" s="1">
-        <v>893.4885</v>
+        <v>895.2642</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>90084.42170000001</v>
+        <v>90084.59110000001</v>
       </c>
       <c r="I11" s="1">
-        <v>13734.6948</v>
+        <v>13418.3344</v>
       </c>
       <c r="J11" s="1">
-        <v>103819.1165</v>
+        <v>103502.9255</v>
       </c>
       <c r="K11" s="1">
-        <v>77829.08719999999</v>
+        <v>78148.5785</v>
       </c>
       <c r="L11" s="1">
-        <v>9.587899999999999</v>
+        <v>9.607900000000001</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9915.578299999999</v>
+        <v>-9955.1587</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0008</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,49 +1980,49 @@
         <v>10.8505</v>
       </c>
       <c r="C12" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D12" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E12" s="1">
-        <v>9010.9573</v>
+        <v>9029.0193</v>
       </c>
       <c r="F12" s="1">
-        <v>1126.8243</v>
+        <v>1129.0777</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>97773.3924</v>
+        <v>97773.44379999999</v>
       </c>
       <c r="I12" s="1">
-        <v>13819.1165</v>
+        <v>13463.1758</v>
       </c>
       <c r="J12" s="1">
-        <v>111592.509</v>
+        <v>111236.6196</v>
       </c>
       <c r="K12" s="1">
-        <v>87744.6655</v>
+        <v>88103.7372</v>
       </c>
       <c r="L12" s="1">
-        <v>9.7376</v>
+        <v>9.7578</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3652.861</v>
+        <v>3660.1898</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8573.7466</v>
+        <v>-8615.4812</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0196</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>11.8576</v>
       </c>
       <c r="C13" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D13" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E13" s="1">
-        <v>10137.7817</v>
+        <v>10158.0969</v>
       </c>
       <c r="F13" s="1">
-        <v>-17.6899</v>
+        <v>-17.7375</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120209.7599</v>
+        <v>120209.9032</v>
       </c>
       <c r="I13" s="1">
-        <v>15245.3699</v>
+        <v>14847.6945</v>
       </c>
       <c r="J13" s="1">
-        <v>135455.1298</v>
+        <v>135057.5977</v>
       </c>
       <c r="K13" s="1">
-        <v>99971.27310000001</v>
+        <v>100379.4083</v>
       </c>
       <c r="L13" s="1">
-        <v>9.8613</v>
+        <v>9.8817</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,7 +2072,7 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>209.7599</v>
+        <v>209.9032</v>
       </c>
       <c r="Q13" s="3">
         <v>0.114</v>
@@ -2086,34 +2086,34 @@
         <v>12.5699</v>
       </c>
       <c r="C14" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D14" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E14" s="1">
-        <v>10120.0918</v>
+        <v>10140.3595</v>
       </c>
       <c r="F14" s="1">
-        <v>-10120.0918</v>
+        <v>-10140.3595</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>127208.5414</v>
+        <v>127208.7816</v>
       </c>
       <c r="I14" s="1">
-        <v>25455.1298</v>
+        <v>25057.5977</v>
       </c>
       <c r="J14" s="1">
-        <v>152663.6712</v>
+        <v>152266.3793</v>
       </c>
       <c r="K14" s="1">
-        <v>99761.5132</v>
+        <v>100168.6625</v>
       </c>
       <c r="L14" s="1">
-        <v>9.857799999999999</v>
+        <v>9.8782</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>127208.5414</v>
+        <v>127208.7816</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0496</v>
+        <v>0.0497</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>8.9801</v>
       </c>
       <c r="C2" s="1">
-        <v>8.9801</v>
+        <v>8.9621</v>
       </c>
       <c r="D2" s="1">
-        <v>8.9801</v>
+        <v>8.998100000000001</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1113.5733</v>
+        <v>1111.3457</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>8.6477</v>
       </c>
       <c r="C3" s="1">
-        <v>8.6477</v>
+        <v>8.6304</v>
       </c>
       <c r="D3" s="1">
-        <v>8.6477</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>1113.5733</v>
+        <v>1111.3457</v>
       </c>
       <c r="F3" s="1">
-        <v>1156.3768</v>
+        <v>1154.0681</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9629.8482</v>
+        <v>9591.358200000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9629.8482</v>
+        <v>9591.358200000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>8.9801</v>
+        <v>8.998100000000001</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.037</v>
+        <v>-0.0409</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>9.568899999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>9.568899999999999</v>
+        <v>9.549799999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>2269.9502</v>
+        <v>2265.4138</v>
       </c>
       <c r="F4" s="1">
-        <v>880.9083000000001</v>
+        <v>891.7465</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>21720.9263</v>
+        <v>21634.2489</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21720.9263</v>
+        <v>21634.2489</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>8.8108</v>
+        <v>8.8284</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8429.323700000001</v>
+        <v>-8550.155000000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.1065</v>
+        <v>0.1043</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E5" s="1">
-        <v>3150.8585</v>
+        <v>3157.1604</v>
       </c>
       <c r="F5" s="1">
-        <v>1123.1145</v>
+        <v>1125.3965</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>29710.7052</v>
+        <v>29710.4576</v>
       </c>
       <c r="I5" s="1">
-        <v>1570.6763</v>
+        <v>1449.845</v>
       </c>
       <c r="J5" s="1">
-        <v>31281.3816</v>
+        <v>31160.3026</v>
       </c>
       <c r="K5" s="1">
-        <v>28429.3237</v>
+        <v>28550.155</v>
       </c>
       <c r="L5" s="1">
-        <v>9.0227</v>
+        <v>9.042999999999999</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10590.296</v>
+        <v>-10633.0837</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0139</v>
+        <v>-0.015</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D6" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E6" s="1">
-        <v>4273.973</v>
+        <v>4282.5569</v>
       </c>
       <c r="F6" s="1">
-        <v>984.5684</v>
+        <v>986.4635</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>41046.8095</v>
+        <v>41047.4509</v>
       </c>
       <c r="I6" s="1">
-        <v>980.3803</v>
+        <v>816.7613</v>
       </c>
       <c r="J6" s="1">
-        <v>42027.1899</v>
+        <v>41864.2122</v>
       </c>
       <c r="K6" s="1">
-        <v>39019.6197</v>
+        <v>39183.2387</v>
       </c>
       <c r="L6" s="1">
-        <v>9.1296</v>
+        <v>9.1495</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9455.7952</v>
+        <v>-9493.0342</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0181</v>
+        <v>0.0171</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>10.3595</v>
       </c>
       <c r="C7" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D7" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E7" s="1">
-        <v>5258.5415</v>
+        <v>5269.0204</v>
       </c>
       <c r="F7" s="1">
-        <v>606.1256</v>
+        <v>607.3887999999999</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>54475.8602</v>
+        <v>54475.3476</v>
       </c>
       <c r="I7" s="1">
-        <v>1524.5851</v>
+        <v>1323.7271</v>
       </c>
       <c r="J7" s="1">
-        <v>56000.4453</v>
+        <v>55799.0747</v>
       </c>
       <c r="K7" s="1">
-        <v>48475.4149</v>
+        <v>48676.2729</v>
       </c>
       <c r="L7" s="1">
-        <v>9.218400000000001</v>
+        <v>9.238200000000001</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-6279.1586</v>
+        <v>-6304.8778</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0764</v>
+        <v>0.0759</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>10.0875</v>
       </c>
       <c r="C8" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D8" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E8" s="1">
-        <v>5864.6671</v>
+        <v>5876.4091</v>
       </c>
       <c r="F8" s="1">
-        <v>1179.5752</v>
+        <v>1181.9674</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>59159.8293</v>
+        <v>59159.5737</v>
       </c>
       <c r="I8" s="1">
-        <v>5245.4265</v>
+        <v>5018.8493</v>
       </c>
       <c r="J8" s="1">
-        <v>64405.2559</v>
+        <v>64178.423</v>
       </c>
       <c r="K8" s="1">
-        <v>54754.5735</v>
+        <v>54981.1507</v>
       </c>
       <c r="L8" s="1">
-        <v>9.3363</v>
+        <v>9.356199999999999</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11898.9645</v>
+        <v>-11946.9717</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0242</v>
+        <v>-0.0246</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,49 +2589,49 @@
         <v>10.1692</v>
       </c>
       <c r="C9" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D9" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E9" s="1">
-        <v>7044.2423</v>
+        <v>7058.3765</v>
       </c>
       <c r="F9" s="1">
-        <v>961.7059</v>
+        <v>963.5853</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>71634.3085</v>
+        <v>71634.7574</v>
       </c>
       <c r="I9" s="1">
-        <v>3346.462</v>
+        <v>3071.8776</v>
       </c>
       <c r="J9" s="1">
-        <v>74980.7705</v>
+        <v>74706.6351</v>
       </c>
       <c r="K9" s="1">
-        <v>66653.538</v>
+        <v>66928.12239999999</v>
       </c>
       <c r="L9" s="1">
-        <v>9.4621</v>
+        <v>9.482100000000001</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1583.4601</v>
+        <v>1586.6305</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8196.319299999999</v>
+        <v>-8231.9179</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0077</v>
+        <v>0.0071</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>11.0872</v>
       </c>
       <c r="C10" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D10" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E10" s="1">
-        <v>8005.9481</v>
+        <v>8021.9618</v>
       </c>
       <c r="F10" s="1">
-        <v>275.7784</v>
+        <v>276.3806</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>88763.5482</v>
+        <v>88763.007</v>
       </c>
       <c r="I10" s="1">
-        <v>5150.1427</v>
+        <v>4839.9597</v>
       </c>
       <c r="J10" s="1">
-        <v>93913.69100000001</v>
+        <v>93602.96679999999</v>
       </c>
       <c r="K10" s="1">
-        <v>76433.3174</v>
+        <v>76746.6707</v>
       </c>
       <c r="L10" s="1">
-        <v>9.5471</v>
+        <v>9.5671</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-3057.61</v>
+        <v>-3070.4226</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.1051</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>11.0976</v>
       </c>
       <c r="C11" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D11" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E11" s="1">
-        <v>8281.726500000001</v>
+        <v>8298.3424</v>
       </c>
       <c r="F11" s="1">
-        <v>934.7044</v>
+        <v>936.5624</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>91907.2882</v>
+        <v>91907.4611</v>
       </c>
       <c r="I11" s="1">
-        <v>12092.5327</v>
+        <v>11769.5372</v>
       </c>
       <c r="J11" s="1">
-        <v>103999.8209</v>
+        <v>103676.9982</v>
       </c>
       <c r="K11" s="1">
-        <v>79490.9274</v>
+        <v>79817.09329999999</v>
       </c>
       <c r="L11" s="1">
-        <v>9.5984</v>
+        <v>9.618399999999999</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10372.9758</v>
+        <v>-10414.3864</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0008</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,49 +2748,49 @@
         <v>10.8505</v>
       </c>
       <c r="C12" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D12" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E12" s="1">
-        <v>9216.430899999999</v>
+        <v>9234.9048</v>
       </c>
       <c r="F12" s="1">
-        <v>1178.6352</v>
+        <v>1180.9922</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>100002.884</v>
+        <v>100002.9366</v>
       </c>
       <c r="I12" s="1">
-        <v>11719.5569</v>
+        <v>11355.1508</v>
       </c>
       <c r="J12" s="1">
-        <v>111722.4408</v>
+        <v>111358.0874</v>
       </c>
       <c r="K12" s="1">
-        <v>89863.90330000001</v>
+        <v>90231.4797</v>
       </c>
       <c r="L12" s="1">
-        <v>9.750400000000001</v>
+        <v>9.7707</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3726.7769</v>
+        <v>3734.2541</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9062.004499999999</v>
+        <v>-9105.847900000001</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.02</v>
+        <v>-0.0204</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>11.8576</v>
       </c>
       <c r="C13" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D13" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E13" s="1">
-        <v>10395.0662</v>
+        <v>10415.897</v>
       </c>
       <c r="F13" s="1">
-        <v>8.0191</v>
+        <v>8.0227</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123260.5365</v>
+        <v>123260.6835</v>
       </c>
       <c r="I13" s="1">
-        <v>12657.5524</v>
+        <v>12249.3029</v>
       </c>
       <c r="J13" s="1">
-        <v>135918.0889</v>
+        <v>135509.9863</v>
       </c>
       <c r="K13" s="1">
-        <v>102652.6847</v>
+        <v>103071.5817</v>
       </c>
       <c r="L13" s="1">
-        <v>9.8751</v>
+        <v>9.8956</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-95.0872</v>
+        <v>-95.32129999999999</v>
       </c>
       <c r="Q13" s="3">
         <v>0.1166</v>
@@ -2854,34 +2854,34 @@
         <v>12.5699</v>
       </c>
       <c r="C14" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D14" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E14" s="1">
-        <v>10403.0853</v>
+        <v>10423.9197</v>
       </c>
       <c r="F14" s="1">
-        <v>-10403.0853</v>
+        <v>-10423.9197</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>130765.7414</v>
+        <v>130765.9883</v>
       </c>
       <c r="I14" s="1">
-        <v>22562.4652</v>
+        <v>22153.9815</v>
       </c>
       <c r="J14" s="1">
-        <v>153328.2065</v>
+        <v>152919.9698</v>
       </c>
       <c r="K14" s="1">
-        <v>102747.7719</v>
+        <v>103166.903</v>
       </c>
       <c r="L14" s="1">
-        <v>9.8767</v>
+        <v>9.8971</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>130765.7414</v>
+        <v>130765.9883</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0508</v>
+        <v>0.0509</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>8.9801</v>
       </c>
       <c r="C2" s="1">
-        <v>8.9801</v>
+        <v>8.9621</v>
       </c>
       <c r="D2" s="1">
-        <v>8.9801</v>
+        <v>8.998100000000001</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1113.5733</v>
+        <v>1111.3457</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>8.6477</v>
       </c>
       <c r="C3" s="1">
-        <v>8.6477</v>
+        <v>8.6304</v>
       </c>
       <c r="D3" s="1">
-        <v>8.6477</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>1113.5733</v>
+        <v>1111.3457</v>
       </c>
       <c r="F3" s="1">
-        <v>1156.3768</v>
+        <v>1154.0681</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9629.8482</v>
+        <v>9591.358200000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9629.8482</v>
+        <v>9591.358200000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>8.9801</v>
+        <v>8.998100000000001</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.037</v>
+        <v>-0.0409</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>9.568899999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>9.568899999999999</v>
+        <v>9.549799999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>2269.9502</v>
+        <v>2265.4138</v>
       </c>
       <c r="F4" s="1">
-        <v>896.6625</v>
+        <v>907.5322</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>21720.9263</v>
+        <v>21634.2489</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21720.9263</v>
+        <v>21634.2489</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>8.8108</v>
+        <v>8.8284</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8580.073700000001</v>
+        <v>-8701.509599999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.1065</v>
+        <v>0.1043</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E5" s="1">
-        <v>3166.6127</v>
+        <v>3172.946</v>
       </c>
       <c r="F5" s="1">
-        <v>1139.4948</v>
+        <v>1141.8098</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>29859.2575</v>
+        <v>29859.0086</v>
       </c>
       <c r="I5" s="1">
-        <v>1419.9263</v>
+        <v>1298.4904</v>
       </c>
       <c r="J5" s="1">
-        <v>31279.1839</v>
+        <v>31157.499</v>
       </c>
       <c r="K5" s="1">
-        <v>28580.0737</v>
+        <v>28701.5096</v>
       </c>
       <c r="L5" s="1">
-        <v>9.025399999999999</v>
+        <v>9.0457</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10744.7525</v>
+        <v>-10788.1618</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0139</v>
+        <v>-0.0151</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D6" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E6" s="1">
-        <v>4306.1075</v>
+        <v>4314.7559</v>
       </c>
       <c r="F6" s="1">
-        <v>1005.2816</v>
+        <v>1007.2175</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>41355.4258</v>
+        <v>41356.0719</v>
       </c>
       <c r="I6" s="1">
-        <v>675.1739</v>
+        <v>510.3286</v>
       </c>
       <c r="J6" s="1">
-        <v>42030.5996</v>
+        <v>41866.4006</v>
       </c>
       <c r="K6" s="1">
-        <v>39324.8261</v>
+        <v>39489.6714</v>
       </c>
       <c r="L6" s="1">
-        <v>9.132300000000001</v>
+        <v>9.152200000000001</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9654.724899999999</v>
+        <v>-9692.755999999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0182</v>
+        <v>0.0172</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>10.3595</v>
       </c>
       <c r="C7" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D7" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E7" s="1">
-        <v>5311.3891</v>
+        <v>5321.9733</v>
       </c>
       <c r="F7" s="1">
-        <v>627.1359</v>
+        <v>628.4417</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>55023.3357</v>
+        <v>55022.818</v>
       </c>
       <c r="I7" s="1">
-        <v>1020.449</v>
+        <v>817.5726</v>
       </c>
       <c r="J7" s="1">
-        <v>56043.7847</v>
+        <v>55840.3906</v>
       </c>
       <c r="K7" s="1">
-        <v>48979.551</v>
+        <v>49182.4274</v>
       </c>
       <c r="L7" s="1">
-        <v>9.2216</v>
+        <v>9.241400000000001</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-6496.8149</v>
+        <v>-6523.4129</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0771</v>
+        <v>0.0766</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>10.0875</v>
       </c>
       <c r="C8" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D8" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E8" s="1">
-        <v>5938.5251</v>
+        <v>5950.415</v>
       </c>
       <c r="F8" s="1">
-        <v>1212.4392</v>
+        <v>1214.8977</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>59904.8718</v>
+        <v>59904.6129</v>
       </c>
       <c r="I8" s="1">
-        <v>4523.6341</v>
+        <v>4294.1597</v>
       </c>
       <c r="J8" s="1">
-        <v>64428.5059</v>
+        <v>64198.7726</v>
       </c>
       <c r="K8" s="1">
-        <v>55476.3659</v>
+        <v>55705.8403</v>
       </c>
       <c r="L8" s="1">
-        <v>9.341799999999999</v>
+        <v>9.361700000000001</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-12230.4803</v>
+        <v>-12279.821</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0245</v>
+        <v>-0.0249</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,49 +3357,49 @@
         <v>10.1692</v>
       </c>
       <c r="C9" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D9" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E9" s="1">
-        <v>7150.9643</v>
+        <v>7165.3127</v>
       </c>
       <c r="F9" s="1">
-        <v>996.8454</v>
+        <v>998.7944</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>72719.58590000001</v>
+        <v>72720.0416</v>
       </c>
       <c r="I9" s="1">
-        <v>2293.1538</v>
+        <v>2014.3386</v>
       </c>
       <c r="J9" s="1">
-        <v>75012.73970000001</v>
+        <v>74734.3802</v>
       </c>
       <c r="K9" s="1">
-        <v>67706.8462</v>
+        <v>67985.6614</v>
       </c>
       <c r="L9" s="1">
-        <v>9.4682</v>
+        <v>9.488200000000001</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1603.4018</v>
+        <v>1606.612</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8533.718000000001</v>
+        <v>-8570.7029</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0078</v>
+        <v>0.0072</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>11.0872</v>
       </c>
       <c r="C10" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D10" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E10" s="1">
-        <v>8147.8096</v>
+        <v>8164.107</v>
       </c>
       <c r="F10" s="1">
-        <v>302.049</v>
+        <v>302.7048</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>90336.3949</v>
+        <v>90335.8441</v>
       </c>
       <c r="I10" s="1">
-        <v>3759.4358</v>
+        <v>3443.6357</v>
       </c>
       <c r="J10" s="1">
-        <v>94095.83070000001</v>
+        <v>93779.4798</v>
       </c>
       <c r="K10" s="1">
-        <v>77843.9659</v>
+        <v>78162.97629999999</v>
       </c>
       <c r="L10" s="1">
-        <v>9.554</v>
+        <v>9.574</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-3348.8778</v>
+        <v>-3362.8687</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.1068</v>
+        <v>0.1067</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>11.0976</v>
       </c>
       <c r="C11" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D11" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E11" s="1">
-        <v>8449.8586</v>
+        <v>8466.811799999999</v>
       </c>
       <c r="F11" s="1">
-        <v>977.5964</v>
+        <v>979.5401000000001</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>93773.15119999999</v>
+        <v>93773.3275</v>
       </c>
       <c r="I11" s="1">
-        <v>10410.558</v>
+        <v>10080.767</v>
       </c>
       <c r="J11" s="1">
-        <v>104183.7092</v>
+        <v>103854.0945</v>
       </c>
       <c r="K11" s="1">
-        <v>81192.8438</v>
+        <v>81525.845</v>
       </c>
       <c r="L11" s="1">
-        <v>9.6088</v>
+        <v>9.6289</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10848.9742</v>
+        <v>-10892.2895</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0008</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,49 +3516,49 @@
         <v>10.8505</v>
       </c>
       <c r="C12" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D12" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E12" s="1">
-        <v>9427.455099999999</v>
+        <v>9446.3519</v>
       </c>
       <c r="F12" s="1">
-        <v>1232.7308</v>
+        <v>1235.1961</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>102292.6013</v>
+        <v>102292.655</v>
       </c>
       <c r="I12" s="1">
-        <v>9561.5838</v>
+        <v>9188.477500000001</v>
       </c>
       <c r="J12" s="1">
-        <v>111854.1851</v>
+        <v>111481.1326</v>
       </c>
       <c r="K12" s="1">
-        <v>92041.818</v>
+        <v>92418.1345</v>
       </c>
       <c r="L12" s="1">
-        <v>9.763199999999999</v>
+        <v>9.7835</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3802.4364</v>
+        <v>3810.0653</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9573.308999999999</v>
+        <v>-9619.3573</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0204</v>
+        <v>-0.0208</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>11.8576</v>
       </c>
       <c r="C13" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D13" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E13" s="1">
-        <v>10660.1859</v>
+        <v>10681.548</v>
       </c>
       <c r="F13" s="1">
-        <v>35.4887</v>
+        <v>35.547</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126404.2198</v>
+        <v>126404.3705</v>
       </c>
       <c r="I13" s="1">
-        <v>9988.274799999999</v>
+        <v>9569.120199999999</v>
       </c>
       <c r="J13" s="1">
-        <v>136392.4946</v>
+        <v>135973.4907</v>
       </c>
       <c r="K13" s="1">
-        <v>105417.5634</v>
+        <v>105847.5572</v>
       </c>
       <c r="L13" s="1">
-        <v>9.8889</v>
+        <v>9.9094</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,7 +3608,7 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-420.8103</v>
+        <v>-422.3481</v>
       </c>
       <c r="Q13" s="3">
         <v>0.1193</v>
@@ -3622,34 +3622,34 @@
         <v>12.5699</v>
       </c>
       <c r="C14" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D14" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E14" s="1">
-        <v>10695.6745</v>
+        <v>10717.095</v>
       </c>
       <c r="F14" s="1">
-        <v>-10695.6745</v>
+        <v>-10717.095</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>134443.5591</v>
+        <v>134443.8129</v>
       </c>
       <c r="I14" s="1">
-        <v>19567.4645</v>
+        <v>19146.7721</v>
       </c>
       <c r="J14" s="1">
-        <v>154011.0236</v>
+        <v>153590.5851</v>
       </c>
       <c r="K14" s="1">
-        <v>105838.3737</v>
+        <v>106269.9052</v>
       </c>
       <c r="L14" s="1">
-        <v>9.8954</v>
+        <v>9.915900000000001</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>134443.5591</v>
+        <v>134443.8129</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.052</v>
+        <v>0.0522</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>8.9801</v>
       </c>
       <c r="C2" s="1">
-        <v>8.9801</v>
+        <v>8.9621</v>
       </c>
       <c r="D2" s="1">
-        <v>8.9801</v>
+        <v>8.998100000000001</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1113.5733</v>
+        <v>1111.3457</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>8.6477</v>
       </c>
       <c r="C3" s="1">
-        <v>8.6477</v>
+        <v>8.6304</v>
       </c>
       <c r="D3" s="1">
-        <v>8.6477</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>1113.5733</v>
+        <v>1111.3457</v>
       </c>
       <c r="F3" s="1">
-        <v>1156.3768</v>
+        <v>1154.0681</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9629.8482</v>
+        <v>9591.358200000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9629.8482</v>
+        <v>9591.358200000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>8.9801</v>
+        <v>8.998100000000001</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.037</v>
+        <v>-0.0409</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>9.568899999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>9.568899999999999</v>
+        <v>9.549799999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>9.568899999999999</v>
+        <v>9.588100000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>2269.9502</v>
+        <v>2265.4138</v>
       </c>
       <c r="F4" s="1">
-        <v>912.4689</v>
+        <v>923.3702</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>21720.9263</v>
+        <v>21634.2489</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21720.9263</v>
+        <v>21634.2489</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>8.8108</v>
+        <v>8.8284</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8731.323700000001</v>
+        <v>-8853.3662</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.1065</v>
+        <v>0.1043</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>9.429399999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>9.429399999999999</v>
+        <v>9.410500000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>9.429399999999999</v>
+        <v>9.4483</v>
       </c>
       <c r="E5" s="1">
-        <v>3182.4191</v>
+        <v>3188.7841</v>
       </c>
       <c r="F5" s="1">
-        <v>1156.0366</v>
+        <v>1158.3849</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>30008.3025</v>
+        <v>30008.0524</v>
       </c>
       <c r="I5" s="1">
-        <v>1268.6763</v>
+        <v>1146.6338</v>
       </c>
       <c r="J5" s="1">
-        <v>31276.9789</v>
+        <v>31154.6862</v>
       </c>
       <c r="K5" s="1">
-        <v>28731.3237</v>
+        <v>28853.3662</v>
       </c>
       <c r="L5" s="1">
-        <v>9.0281</v>
+        <v>9.048400000000001</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10900.7312</v>
+        <v>-10944.7683</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.014</v>
+        <v>-0.0152</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>9.603999999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>9.603899999999999</v>
+        <v>9.5848</v>
       </c>
       <c r="D6" s="1">
-        <v>9.603999999999999</v>
+        <v>9.6233</v>
       </c>
       <c r="E6" s="1">
-        <v>4338.4557</v>
+        <v>4347.169</v>
       </c>
       <c r="F6" s="1">
-        <v>1026.3096</v>
+        <v>1028.2869</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>41666.0943</v>
+        <v>41666.7453</v>
       </c>
       <c r="I6" s="1">
-        <v>367.9451</v>
+        <v>201.8655</v>
       </c>
       <c r="J6" s="1">
-        <v>42034.0394</v>
+        <v>41868.6108</v>
       </c>
       <c r="K6" s="1">
-        <v>39632.0549</v>
+        <v>39798.1345</v>
       </c>
       <c r="L6" s="1">
-        <v>9.1351</v>
+        <v>9.154999999999999</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9856.677600000001</v>
+        <v>-9895.513000000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0183</v>
+        <v>0.0173</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>10.3595</v>
       </c>
       <c r="C7" s="1">
-        <v>10.3595</v>
+        <v>10.3388</v>
       </c>
       <c r="D7" s="1">
-        <v>10.3595</v>
+        <v>10.3803</v>
       </c>
       <c r="E7" s="1">
-        <v>5364.7653</v>
+        <v>5375.4559</v>
       </c>
       <c r="F7" s="1">
-        <v>648.605</v>
+        <v>649.9542</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>55576.2859</v>
+        <v>55575.763</v>
       </c>
       <c r="I7" s="1">
-        <v>511.2675</v>
+        <v>306.3525</v>
       </c>
       <c r="J7" s="1">
-        <v>56087.5534</v>
+        <v>55882.1155</v>
       </c>
       <c r="K7" s="1">
-        <v>49488.7325</v>
+        <v>49693.6475</v>
       </c>
       <c r="L7" s="1">
-        <v>9.2248</v>
+        <v>9.2445</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-6719.2234</v>
+        <v>-6746.7194</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0779</v>
+        <v>0.0774</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>10.0875</v>
       </c>
       <c r="C8" s="1">
-        <v>10.0875</v>
+        <v>10.0673</v>
       </c>
       <c r="D8" s="1">
-        <v>10.0875</v>
+        <v>10.1077</v>
       </c>
       <c r="E8" s="1">
-        <v>6013.3703</v>
+        <v>6025.41</v>
       </c>
       <c r="F8" s="1">
-        <v>1246.1035</v>
+        <v>1248.6299</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>60659.8726</v>
+        <v>60659.6105</v>
       </c>
       <c r="I8" s="1">
-        <v>3792.0441</v>
+        <v>3559.6331</v>
       </c>
       <c r="J8" s="1">
-        <v>64451.9167</v>
+        <v>64219.2435</v>
       </c>
       <c r="K8" s="1">
-        <v>56207.9559</v>
+        <v>56440.3669</v>
       </c>
       <c r="L8" s="1">
-        <v>9.347200000000001</v>
+        <v>9.367100000000001</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-12570.0694</v>
+        <v>-12620.7761</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0247</v>
+        <v>-0.0252</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,49 +4125,49 @@
         <v>10.1692</v>
       </c>
       <c r="C9" s="1">
-        <v>10.1692</v>
+        <v>10.1489</v>
       </c>
       <c r="D9" s="1">
-        <v>10.1692</v>
+        <v>10.1896</v>
       </c>
       <c r="E9" s="1">
-        <v>7259.4738</v>
+        <v>7274.0399</v>
       </c>
       <c r="F9" s="1">
-        <v>1033.0557</v>
+        <v>1035.0765</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>73823.04090000001</v>
+        <v>73823.5036</v>
       </c>
       <c r="I9" s="1">
-        <v>1221.9747</v>
+        <v>938.857</v>
       </c>
       <c r="J9" s="1">
-        <v>75045.0157</v>
+        <v>74762.3605</v>
       </c>
       <c r="K9" s="1">
-        <v>68778.02529999999</v>
+        <v>69061.143</v>
       </c>
       <c r="L9" s="1">
-        <v>9.4742</v>
+        <v>9.494199999999999</v>
       </c>
       <c r="M9" s="1">
         <v>0.3</v>
       </c>
       <c r="N9" s="1">
-        <v>1623.61</v>
+        <v>1626.8607</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8881.740100000001</v>
+        <v>-8920.154399999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.008</v>
+        <v>0.0073</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>11.0872</v>
       </c>
       <c r="C10" s="1">
-        <v>11.0872</v>
+        <v>11.065</v>
       </c>
       <c r="D10" s="1">
-        <v>11.0872</v>
+        <v>11.1094</v>
       </c>
       <c r="E10" s="1">
-        <v>8292.529500000001</v>
+        <v>8309.116400000001</v>
       </c>
       <c r="F10" s="1">
-        <v>329.4235</v>
+        <v>330.1351</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>91940.9332</v>
+        <v>91940.3726</v>
       </c>
       <c r="I10" s="1">
-        <v>2340.2346</v>
+        <v>2018.7026</v>
       </c>
       <c r="J10" s="1">
-        <v>94281.16770000001</v>
+        <v>93959.0751</v>
       </c>
       <c r="K10" s="1">
-        <v>79283.3754</v>
+        <v>79608.1581</v>
       </c>
       <c r="L10" s="1">
-        <v>9.5608</v>
+        <v>9.5808</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-3652.3838</v>
+        <v>-3667.6024</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.1086</v>
+        <v>0.1085</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>11.0976</v>
       </c>
       <c r="C11" s="1">
-        <v>11.0976</v>
+        <v>11.0754</v>
       </c>
       <c r="D11" s="1">
-        <v>11.0976</v>
+        <v>11.1198</v>
       </c>
       <c r="E11" s="1">
-        <v>8621.953</v>
+        <v>8639.251399999999</v>
       </c>
       <c r="F11" s="1">
-        <v>1022.2239</v>
+        <v>1024.2566</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>95682.9852</v>
+        <v>95683.1651</v>
       </c>
       <c r="I11" s="1">
-        <v>8687.8508</v>
+        <v>8351.100200000001</v>
       </c>
       <c r="J11" s="1">
-        <v>104370.8361</v>
+        <v>104034.2654</v>
       </c>
       <c r="K11" s="1">
-        <v>82935.7592</v>
+        <v>83275.7605</v>
       </c>
       <c r="L11" s="1">
-        <v>9.6191</v>
+        <v>9.639200000000001</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11344.2314</v>
+        <v>-11389.5285</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0009</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,49 +4284,49 @@
         <v>10.8505</v>
       </c>
       <c r="C12" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D12" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E12" s="1">
-        <v>9644.176799999999</v>
+        <v>9663.508</v>
       </c>
       <c r="F12" s="1">
-        <v>1289.2018</v>
+        <v>1291.7802</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>104644.1406</v>
+        <v>104644.1956</v>
       </c>
       <c r="I12" s="1">
-        <v>7343.6194</v>
+        <v>6961.5717</v>
       </c>
       <c r="J12" s="1">
-        <v>111987.76</v>
+        <v>111605.7673</v>
       </c>
       <c r="K12" s="1">
-        <v>94279.9906</v>
+        <v>94665.289</v>
       </c>
       <c r="L12" s="1">
-        <v>9.7758</v>
+        <v>9.796200000000001</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3879.8788</v>
+        <v>3887.6631</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10108.6055</v>
+        <v>-10156.9586</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0208</v>
+        <v>-0.0213</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>11.8576</v>
       </c>
       <c r="C13" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D13" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E13" s="1">
-        <v>10933.3786</v>
+        <v>10955.2882</v>
       </c>
       <c r="F13" s="1">
-        <v>64.8094</v>
+        <v>64.92610000000001</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>129643.6306</v>
+        <v>129643.7851</v>
       </c>
       <c r="I13" s="1">
-        <v>7235.0139</v>
+        <v>6804.6131</v>
       </c>
       <c r="J13" s="1">
-        <v>136878.6444</v>
+        <v>136448.3982</v>
       </c>
       <c r="K13" s="1">
-        <v>108268.4749</v>
+        <v>108709.9108</v>
       </c>
       <c r="L13" s="1">
-        <v>9.9026</v>
+        <v>9.9231</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,7 +4376,7 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-768.4837</v>
+        <v>-771.4132</v>
       </c>
       <c r="Q13" s="3">
         <v>0.1221</v>
@@ -4390,34 +4390,34 @@
         <v>12.5699</v>
       </c>
       <c r="C14" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D14" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E14" s="1">
-        <v>10998.188</v>
+        <v>11020.2143</v>
       </c>
       <c r="F14" s="1">
-        <v>-10998.188</v>
+        <v>-11020.2143</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>138246.1236</v>
+        <v>138246.3847</v>
       </c>
       <c r="I14" s="1">
-        <v>16466.5301</v>
+        <v>16033.1999</v>
       </c>
       <c r="J14" s="1">
-        <v>154712.6538</v>
+        <v>154279.5845</v>
       </c>
       <c r="K14" s="1">
-        <v>109036.9587</v>
+        <v>109481.324</v>
       </c>
       <c r="L14" s="1">
-        <v>9.914099999999999</v>
+        <v>9.9346</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>138246.1236</v>
+        <v>138246.3847</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0533</v>
+        <v>0.0535</v>
       </c>
     </row>
   </sheetData>
@@ -4451,7 +4451,7 @@
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.1282</v>
+        <v>10.1484</v>
       </c>
       <c r="D3" s="1">
-        <v>9.857799999999999</v>
+        <v>9.8782</v>
       </c>
       <c r="E3" s="1">
-        <v>9.8767</v>
+        <v>9.8971</v>
       </c>
       <c r="F3" s="1">
-        <v>9.8954</v>
+        <v>9.915900000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>9.914099999999999</v>
+        <v>9.9346</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.3558</v>
       </c>
       <c r="C4" s="3">
-        <v>0.4102</v>
+        <v>0.3979</v>
       </c>
       <c r="D4" s="3">
-        <v>0.3812</v>
+        <v>0.3711</v>
       </c>
       <c r="E4" s="3">
-        <v>0.387</v>
+        <v>0.3768</v>
       </c>
       <c r="F4" s="3">
-        <v>0.3929</v>
+        <v>0.3826</v>
       </c>
       <c r="G4" s="3">
-        <v>0.399</v>
+        <v>0.3885</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1747</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1964</v>
+        <v>0.1973</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1844</v>
+        <v>0.1855</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1867</v>
+        <v>0.1878</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1891</v>
+        <v>0.1903</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1916</v>
+        <v>0.1928</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>1.9197</v>
       </c>
       <c r="C6" s="4">
-        <v>1.9846</v>
+        <v>1.9141</v>
       </c>
       <c r="D6" s="4">
-        <v>1.9575</v>
+        <v>1.891</v>
       </c>
       <c r="E6" s="4">
-        <v>1.9641</v>
+        <v>1.8976</v>
       </c>
       <c r="F6" s="4">
-        <v>1.9705</v>
+        <v>1.904</v>
       </c>
       <c r="G6" s="4">
-        <v>1.9766</v>
+        <v>1.9101</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.6074000000000001</v>
+        <v>0.5961</v>
       </c>
       <c r="D7" s="3">
-        <v>0.6081</v>
+        <v>0.5978</v>
       </c>
       <c r="E7" s="3">
-        <v>0.6094000000000001</v>
+        <v>0.599</v>
       </c>
       <c r="F7" s="3">
-        <v>0.6108</v>
+        <v>0.6002</v>
       </c>
       <c r="G7" s="3">
-        <v>0.6121</v>
+        <v>0.6015</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>5907.0402</v>
+        <v>5895.1853</v>
       </c>
       <c r="D8" s="1">
-        <v>5216.643</v>
+        <v>5227.1028</v>
       </c>
       <c r="E8" s="1">
-        <v>5310.2371</v>
+        <v>5320.8845</v>
       </c>
       <c r="F8" s="1">
-        <v>5405.8382</v>
+        <v>5416.6774</v>
       </c>
       <c r="G8" s="1">
-        <v>5503.4888</v>
+        <v>5514.5238</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P5_KFSDIV.xlsx
+++ b/output/1Y_P5_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.9801</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.6477</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.568899999999999</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.429399999999999</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.603999999999999</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.3595</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.0875</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.1692</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.0872</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.0976</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.8505</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.8576</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.5699</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.9801</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.6477</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.568899999999999</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.429399999999999</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.603999999999999</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.3595</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.0875</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.1692</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.0872</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.0976</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.8505</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.8576</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.5699</v>
@@ -2110,10 +2113,10 @@
         <v>153479.8061</v>
       </c>
       <c r="K14" s="1">
-        <v>100168.6625</v>
+        <v>100169.505</v>
       </c>
       <c r="L14" s="1">
-        <v>9.8782</v>
+        <v>9.878299999999999</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.9801</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.6477</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.568899999999999</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.429399999999999</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.603999999999999</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.3595</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.0875</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.1692</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.0872</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.0976</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.8505</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.8576</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.5699</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.9801</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.6477</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.568899999999999</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.429399999999999</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.603999999999999</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.3595</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.0875</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.1692</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.0872</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.0976</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.8505</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.8576</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.5699</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.9801</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.6477</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>9.568899999999999</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.429399999999999</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.603999999999999</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.3595</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.0875</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.1692</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>11.0872</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.0976</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.8505</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.8576</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.5699</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4493,7 +4496,7 @@
         <v>10.1566</v>
       </c>
       <c r="D3" s="1">
-        <v>9.8782</v>
+        <v>9.878299999999999</v>
       </c>
       <c r="E3" s="1">
         <v>9.8971</v>
@@ -4612,6 +4615,26 @@
       </c>
       <c r="G8" s="1">
         <v>6812.675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.2351</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.5322</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.4943</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.4572</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.421</v>
       </c>
     </row>
   </sheetData>
